--- a/Code/Results/Cases/Case_3_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171085891496375</v>
+        <v>0.5410300942337471</v>
       </c>
       <c r="C2">
-        <v>0.1257258434283361</v>
+        <v>0.2768127168325076</v>
       </c>
       <c r="D2">
-        <v>0.07302045954252634</v>
+        <v>0.03316564316829584</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4083339705036124</v>
+        <v>0.6696811536956773</v>
       </c>
       <c r="G2">
-        <v>0.3038114945626091</v>
+        <v>0.5099755435820512</v>
       </c>
       <c r="H2">
-        <v>0.2709916163189021</v>
+        <v>0.6575008361093424</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8622387185940568</v>
+        <v>0.2658695971831264</v>
       </c>
       <c r="L2">
-        <v>0.4029835596811182</v>
+        <v>0.3018766062606488</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7187775815971875</v>
+        <v>1.46088788364032</v>
       </c>
       <c r="O2">
-        <v>1.160126689442592</v>
+        <v>2.300653869830867</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.018284424908614</v>
+        <v>0.4973042949314106</v>
       </c>
       <c r="C3">
-        <v>0.130102233490164</v>
+        <v>0.2790564963711972</v>
       </c>
       <c r="D3">
-        <v>0.06515740108525847</v>
+        <v>0.03049942358976665</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3879625792762127</v>
+        <v>0.6693404871908868</v>
       </c>
       <c r="G3">
-        <v>0.2923854014290939</v>
+        <v>0.5111656612577136</v>
       </c>
       <c r="H3">
-        <v>0.2707401169739256</v>
+        <v>0.6613721809385282</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7540226679570026</v>
+        <v>0.2322006871786613</v>
       </c>
       <c r="L3">
-        <v>0.3556170811888961</v>
+        <v>0.2905448421806653</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7527823064771155</v>
+        <v>1.475722630817817</v>
       </c>
       <c r="O3">
-        <v>1.135054425307004</v>
+        <v>2.31104569319848</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9246940291733949</v>
+        <v>0.4705858802843466</v>
       </c>
       <c r="C4">
-        <v>0.1329090842840293</v>
+        <v>0.2805091056868099</v>
       </c>
       <c r="D4">
-        <v>0.06031217180086657</v>
+        <v>0.0288480876533086</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3761754487412574</v>
+        <v>0.6695146128997891</v>
       </c>
       <c r="G4">
-        <v>0.2860173913735409</v>
+        <v>0.5122153051873326</v>
       </c>
       <c r="H4">
-        <v>0.2710034081271857</v>
+        <v>0.6640097691325337</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6875171891257565</v>
+        <v>0.2114735398789378</v>
       </c>
       <c r="L4">
-        <v>0.3269082904983236</v>
+        <v>0.2837571077002963</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7745925104963653</v>
+        <v>1.485311072507731</v>
       </c>
       <c r="O4">
-        <v>1.121898975482452</v>
+        <v>2.318639534505877</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8866011806626943</v>
+        <v>0.4597311740519956</v>
       </c>
       <c r="C5">
-        <v>0.1340826941867279</v>
+        <v>0.2811199197046541</v>
       </c>
       <c r="D5">
-        <v>0.05833304904027869</v>
+        <v>0.02817160032829236</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3715449653042597</v>
+        <v>0.6696820274203219</v>
       </c>
       <c r="G5">
-        <v>0.283577522550587</v>
+        <v>0.5127232299080049</v>
       </c>
       <c r="H5">
-        <v>0.2712123632845262</v>
+        <v>0.665150199880685</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6603941987510638</v>
+        <v>0.2030139292224078</v>
       </c>
       <c r="L5">
-        <v>0.315295502894017</v>
+        <v>0.2810338972334137</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7837092086317821</v>
+        <v>1.489339121317988</v>
       </c>
       <c r="O5">
-        <v>1.117077613994041</v>
+        <v>2.322039290798941</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8802783334919013</v>
+        <v>0.4579307887912876</v>
       </c>
       <c r="C6">
-        <v>0.1342793618852802</v>
+        <v>0.281222484972516</v>
       </c>
       <c r="D6">
-        <v>0.05800412751916895</v>
+        <v>0.02805905640322948</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3707862780383664</v>
+        <v>0.6697156544025731</v>
       </c>
       <c r="G6">
-        <v>0.2831815353677456</v>
+        <v>0.5128124133179952</v>
       </c>
       <c r="H6">
-        <v>0.2712531043061901</v>
+        <v>0.6653435312176299</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.655888973348695</v>
+        <v>0.2016084397409799</v>
       </c>
       <c r="L6">
-        <v>0.3133721958777755</v>
+        <v>0.280584300820351</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7852367019090849</v>
+        <v>1.490015265198554</v>
       </c>
       <c r="O6">
-        <v>1.116308954341775</v>
+        <v>2.322622255171879</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9241801247722492</v>
+        <v>0.4704393542715763</v>
       </c>
       <c r="C7">
-        <v>0.1329247917600789</v>
+        <v>0.2805172669273039</v>
       </c>
       <c r="D7">
-        <v>0.06028549989297716</v>
+        <v>0.02883897865736174</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.376112311370477</v>
+        <v>0.669516480062434</v>
       </c>
       <c r="G7">
-        <v>0.2859838682189633</v>
+        <v>0.5122218305735302</v>
       </c>
       <c r="H7">
-        <v>0.2710058188980113</v>
+        <v>0.6640248837066096</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6871514939678178</v>
+        <v>0.211359503078711</v>
       </c>
       <c r="L7">
-        <v>0.3267513371971518</v>
+        <v>0.2837202079218031</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7747145416321572</v>
+        <v>1.485364907523101</v>
       </c>
       <c r="O7">
-        <v>1.121831798365818</v>
+        <v>2.318684148875164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.118344737789329</v>
+        <v>0.5259270023358908</v>
       </c>
       <c r="C8">
-        <v>0.1272097826948384</v>
+        <v>0.2775708375148236</v>
       </c>
       <c r="D8">
-        <v>0.07031267160868993</v>
+        <v>0.03224931064976744</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4011550848664953</v>
+        <v>0.6694841811634191</v>
       </c>
       <c r="G8">
-        <v>0.299732609936477</v>
+        <v>0.5103197026326782</v>
       </c>
       <c r="H8">
-        <v>0.2708161254940364</v>
+        <v>0.6587816371743997</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8249344364004401</v>
+        <v>0.2542721317164478</v>
       </c>
       <c r="L8">
-        <v>0.3865690254367138</v>
+        <v>0.2979341804341971</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.730305902077653</v>
+        <v>1.465903325209055</v>
       </c>
       <c r="O8">
-        <v>1.151002643497577</v>
+        <v>2.303985241918056</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.501513910208075</v>
+        <v>0.6357385174968897</v>
       </c>
       <c r="C9">
-        <v>0.1169669343450481</v>
+        <v>0.2723861727396057</v>
       </c>
       <c r="D9">
-        <v>0.08985429180610538</v>
+        <v>0.03882260148906624</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4563847549534401</v>
+        <v>0.6724598087353399</v>
       </c>
       <c r="G9">
-        <v>0.3321981506714948</v>
+        <v>0.5091208697625902</v>
       </c>
       <c r="H9">
-        <v>0.2739183334435111</v>
+        <v>0.6505641797605648</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.094960705014756</v>
+        <v>0.3379736791028449</v>
       </c>
       <c r="L9">
-        <v>0.5072202587584798</v>
+        <v>0.3271543049267933</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.650855778412355</v>
+        <v>1.43154517965387</v>
       </c>
       <c r="O9">
-        <v>1.227082191497033</v>
+        <v>2.284782979635423</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.785384771598132</v>
+        <v>0.7169996276427639</v>
       </c>
       <c r="C10">
-        <v>0.1100495199765152</v>
+        <v>0.2689369569658799</v>
       </c>
       <c r="D10">
-        <v>0.1041612149164308</v>
+        <v>0.0435811324608224</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5012800664718995</v>
+        <v>0.6764968938239235</v>
       </c>
       <c r="G10">
-        <v>0.35994109939233</v>
+        <v>0.5097852493180852</v>
       </c>
       <c r="H10">
-        <v>0.2785493408894268</v>
+        <v>0.6457816673298709</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.293728664081499</v>
+        <v>0.3991749111001468</v>
       </c>
       <c r="L10">
-        <v>0.5984647924808257</v>
+        <v>0.3494425665349468</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5974940423040227</v>
+        <v>1.408619749842089</v>
       </c>
       <c r="O10">
-        <v>1.296109526862779</v>
+        <v>2.276537945114114</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915246978568575</v>
+        <v>0.7540885934607218</v>
       </c>
       <c r="C11">
-        <v>0.1070392847656301</v>
+        <v>0.2674456142169763</v>
       </c>
       <c r="D11">
-        <v>0.1106645052765174</v>
+        <v>0.04573030143276924</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5227791930489758</v>
+        <v>0.6787350842365925</v>
       </c>
       <c r="G11">
-        <v>0.3735323678695721</v>
+        <v>0.51042350288688</v>
       </c>
       <c r="H11">
-        <v>0.281221707379089</v>
+        <v>0.643877688979515</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.38435075338424</v>
+        <v>0.4269491289409473</v>
       </c>
       <c r="L11">
-        <v>0.6406714363430979</v>
+        <v>0.3597601811337228</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5743896230382219</v>
+        <v>1.398693030687461</v>
       </c>
       <c r="O11">
-        <v>1.330744526184361</v>
+        <v>2.274059643386693</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.964545212312771</v>
+        <v>0.7681502534720153</v>
       </c>
       <c r="C12">
-        <v>0.1059194413385534</v>
+        <v>0.2668920327321649</v>
       </c>
       <c r="D12">
-        <v>0.1131268766879145</v>
+        <v>0.04654187640673513</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.5310871665978283</v>
+        <v>0.6796403405045766</v>
       </c>
       <c r="G12">
-        <v>0.3788297169120085</v>
+        <v>0.5107135360183719</v>
       </c>
       <c r="H12">
-        <v>0.2823198768445678</v>
+        <v>0.6431956952012996</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.418705807226672</v>
+        <v>0.4374564728812231</v>
       </c>
       <c r="L12">
-        <v>0.6567660707949443</v>
+        <v>0.3636928100565626</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5658163448486633</v>
+        <v>1.395006239970831</v>
       </c>
       <c r="O12">
-        <v>1.344358659662646</v>
+        <v>2.273304066671329</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.953922227053738</v>
+        <v>0.7651210856266175</v>
       </c>
       <c r="C13">
-        <v>0.1061597200119531</v>
+        <v>0.2670107604676657</v>
       </c>
       <c r="D13">
-        <v>0.1125965663435551</v>
+        <v>0.04636719072570372</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5292902822557011</v>
+        <v>0.6794428120485847</v>
       </c>
       <c r="G13">
-        <v>0.3776819559606253</v>
+        <v>0.5106489219265029</v>
       </c>
       <c r="H13">
-        <v>0.2820794520075083</v>
+        <v>0.6433408410478734</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.411304964603801</v>
+        <v>0.4351939890490542</v>
       </c>
       <c r="L13">
-        <v>0.6532946379272744</v>
+        <v>0.3628447124322918</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5676548062168685</v>
+        <v>1.395797042809605</v>
       </c>
       <c r="O13">
-        <v>1.341403880361071</v>
+        <v>2.273458660103984</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.919300219416783</v>
+        <v>0.7552451210867162</v>
       </c>
       <c r="C14">
-        <v>0.1069467498291026</v>
+        <v>0.2673998472258683</v>
       </c>
       <c r="D14">
-        <v>0.110867089149508</v>
+        <v>0.04579711588198165</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5234592824544464</v>
+        <v>0.6788084041359568</v>
       </c>
       <c r="G14">
-        <v>0.3739650995701993</v>
+        <v>0.5104463951600877</v>
       </c>
       <c r="H14">
-        <v>0.2813102979403794</v>
+        <v>0.6438207996116034</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.387176337517985</v>
+        <v>0.4278137812023033</v>
       </c>
       <c r="L14">
-        <v>0.6419932413585343</v>
+        <v>0.3600832089910995</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5736807245496056</v>
+        <v>1.398388268168919</v>
       </c>
       <c r="O14">
-        <v>1.331854376748197</v>
+        <v>2.273993816395006</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.898109699655237</v>
+        <v>0.7491979814293472</v>
       </c>
       <c r="C15">
-        <v>0.1074314549323905</v>
+        <v>0.2676396266030965</v>
       </c>
       <c r="D15">
-        <v>0.1098077108764812</v>
+        <v>0.04544763199290003</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5199097068011937</v>
+        <v>0.6784273236386227</v>
       </c>
       <c r="G15">
-        <v>0.3717083728420789</v>
+        <v>0.5103286376033651</v>
       </c>
       <c r="H15">
-        <v>0.2808505441554701</v>
+        <v>0.6441198655849547</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.372402154045005</v>
+        <v>0.4232918517236328</v>
       </c>
       <c r="L15">
-        <v>0.6350857314196645</v>
+        <v>0.3583950354711902</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.577394909542031</v>
+        <v>1.399984877553569</v>
       </c>
       <c r="O15">
-        <v>1.326070994582636</v>
+        <v>2.274345432317489</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.776914093402752</v>
+        <v>0.7145781811015581</v>
       </c>
       <c r="C16">
-        <v>0.1102490299233363</v>
+        <v>0.2690359820902311</v>
       </c>
       <c r="D16">
-        <v>0.1037361456235502</v>
+        <v>0.04344036383249517</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4998977091125028</v>
+        <v>0.6763587007867287</v>
       </c>
       <c r="G16">
-        <v>0.3590733413292355</v>
+        <v>0.5097503013812172</v>
       </c>
       <c r="H16">
-        <v>0.2783864870915664</v>
+        <v>0.6459115575200798</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.287811146171549</v>
+        <v>0.3973584120948601</v>
       </c>
       <c r="L16">
-        <v>0.5957215115592192</v>
+        <v>0.3487718704368206</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5990281558815838</v>
+        <v>1.409278591853866</v>
       </c>
       <c r="O16">
-        <v>1.293913948640807</v>
+        <v>2.276725506235323</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.702763085912466</v>
+        <v>0.6933709610334802</v>
       </c>
       <c r="C17">
-        <v>0.1120127921682519</v>
+        <v>0.269912494166733</v>
       </c>
       <c r="D17">
-        <v>0.1000104581141699</v>
+        <v>0.04220497000907386</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4879049012779646</v>
+        <v>0.6751925090319233</v>
       </c>
       <c r="G17">
-        <v>0.351578454506452</v>
+        <v>0.5094815895110258</v>
       </c>
       <c r="H17">
-        <v>0.2770231192228039</v>
+        <v>0.6470802287291662</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.235975444028782</v>
+        <v>0.381431632526386</v>
       </c>
       <c r="L17">
-        <v>0.5717597490232436</v>
+        <v>0.3429140319069717</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.612604415392342</v>
+        <v>1.415108624245134</v>
       </c>
       <c r="O17">
-        <v>1.275038214743375</v>
+        <v>2.27851145019639</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.660180785026455</v>
+        <v>0.681184742605069</v>
       </c>
       <c r="C18">
-        <v>0.1130400852951059</v>
+        <v>0.270423957476047</v>
       </c>
       <c r="D18">
-        <v>0.09786704292690729</v>
+        <v>0.04149294651789859</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4811074769826931</v>
+        <v>0.6745595600624696</v>
       </c>
       <c r="G18">
-        <v>0.347358277712658</v>
+        <v>0.5093586605434126</v>
       </c>
       <c r="H18">
-        <v>0.2762918844798321</v>
+        <v>0.6477779860893094</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.206179285413441</v>
+        <v>0.3722647429362098</v>
       </c>
       <c r="L18">
-        <v>0.558042652490002</v>
+        <v>0.3395615726655592</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6205227753619038</v>
+        <v>1.418509169694362</v>
       </c>
       <c r="O18">
-        <v>1.264483676686922</v>
+        <v>2.279658446940601</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.64577420891726</v>
+        <v>0.6770607173334326</v>
       </c>
       <c r="C19">
-        <v>0.1133900986980034</v>
+        <v>0.2705983873991222</v>
       </c>
       <c r="D19">
-        <v>0.09714122093757283</v>
+        <v>0.04125161841108138</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4788228967627575</v>
+        <v>0.6743517508219128</v>
       </c>
       <c r="G19">
-        <v>0.3459446483220034</v>
+        <v>0.5093224702354036</v>
       </c>
       <c r="H19">
-        <v>0.2760532500141579</v>
+        <v>0.6480186278752171</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.196093695134522</v>
+        <v>0.3691599398486574</v>
       </c>
       <c r="L19">
-        <v>0.553409121127217</v>
+        <v>0.3384293787003116</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6232224047275192</v>
+        <v>1.4196686528781</v>
       </c>
       <c r="O19">
-        <v>1.260961019760146</v>
+        <v>2.28006737282621</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.710649488356239</v>
+        <v>0.6956273096090797</v>
       </c>
       <c r="C20">
-        <v>0.1118237063808118</v>
+        <v>0.2698184308411964</v>
       </c>
       <c r="D20">
-        <v>0.1004071124047883</v>
+        <v>0.04233663092641393</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4891710679534711</v>
+        <v>0.6753127390056051</v>
       </c>
       <c r="G20">
-        <v>0.3523668348407369</v>
+        <v>0.5095069209218934</v>
       </c>
       <c r="H20">
-        <v>0.2771627389048632</v>
+        <v>0.6469531758352929</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.241491475790895</v>
+        <v>0.3831277141158012</v>
       </c>
       <c r="L20">
-        <v>0.5743037043757226</v>
+        <v>0.3435358693427162</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6111477968827845</v>
+        <v>1.414483115378255</v>
       </c>
       <c r="O20">
-        <v>1.277016046941839</v>
+        <v>2.27830893825697</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.929466079141747</v>
+        <v>0.7581454796759317</v>
       </c>
       <c r="C21">
-        <v>0.1067150319045673</v>
+        <v>0.2672852603461138</v>
       </c>
       <c r="D21">
-        <v>0.1113750826193467</v>
+        <v>0.04596462255916833</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5251673645520185</v>
+        <v>0.678993179597029</v>
       </c>
       <c r="G21">
-        <v>0.3750526511338848</v>
+        <v>0.5105045700779414</v>
       </c>
       <c r="H21">
-        <v>0.2815338374447975</v>
+        <v>0.643678766101047</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.394262378407063</v>
+        <v>0.4299818072478558</v>
       </c>
       <c r="L21">
-        <v>0.6453096044725584</v>
+        <v>0.3608936363240502</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5719059305349479</v>
+        <v>1.397625201577597</v>
       </c>
       <c r="O21">
-        <v>1.334645487709338</v>
+        <v>2.273831664652135</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.073196849607768</v>
+        <v>0.7991026997244148</v>
       </c>
       <c r="C22">
-        <v>0.103493402741841</v>
+        <v>0.2656947137683217</v>
       </c>
       <c r="D22">
-        <v>0.1185418535418989</v>
+        <v>0.04832248338753686</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5496708925593552</v>
+        <v>0.6817348630246087</v>
       </c>
       <c r="G22">
-        <v>0.3907627411067409</v>
+        <v>0.511438364981359</v>
       </c>
       <c r="H22">
-        <v>0.2848955280941254</v>
+        <v>0.6417660549005717</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.494335898131681</v>
+        <v>0.4605442355366165</v>
       </c>
       <c r="L22">
-        <v>0.692374077365443</v>
+        <v>0.3723869444373804</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5472880280539005</v>
+        <v>1.387028679997968</v>
       </c>
       <c r="O22">
-        <v>1.375233015570984</v>
+        <v>2.271971569837376</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.996412905977451</v>
+        <v>0.777234358623474</v>
       </c>
       <c r="C23">
-        <v>0.1052019752446904</v>
+        <v>0.2665376745984345</v>
       </c>
       <c r="D23">
-        <v>0.114716793312283</v>
+        <v>0.04706527296191609</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.5364992717704524</v>
+        <v>0.6802408239683331</v>
       </c>
       <c r="G23">
-        <v>0.3822933015789403</v>
+        <v>0.5109141922153242</v>
       </c>
       <c r="H23">
-        <v>0.2830534463763001</v>
+        <v>0.6427661248352337</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.440900533432483</v>
+        <v>0.4442381228382146</v>
       </c>
       <c r="L23">
-        <v>0.6671907256446588</v>
+        <v>0.3662391512198724</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5603302882129153</v>
+        <v>1.392645701729363</v>
       </c>
       <c r="O23">
-        <v>1.353291572981618</v>
+        <v>2.2728668155425</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.707083897300947</v>
+        <v>0.694607195373294</v>
       </c>
       <c r="C24">
-        <v>0.1119091507253058</v>
+        <v>0.2698609333685118</v>
       </c>
       <c r="D24">
-        <v>0.1002277896044319</v>
+        <v>0.04227711256464772</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4885983315164424</v>
+        <v>0.6752582661890827</v>
       </c>
       <c r="G24">
-        <v>0.3520101325324418</v>
+        <v>0.5094953702948715</v>
       </c>
       <c r="H24">
-        <v>0.2770994534241709</v>
+        <v>0.6470105358527292</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.238997663346993</v>
+        <v>0.38236094789238</v>
       </c>
       <c r="L24">
-        <v>0.573153399738942</v>
+        <v>0.3432546890046524</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6118059821271498</v>
+        <v>1.414765755985361</v>
       </c>
       <c r="O24">
-        <v>1.276120945268303</v>
+        <v>2.278400119380336</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.397509948924636</v>
+        <v>0.6059273098708786</v>
       </c>
       <c r="C25">
-        <v>0.1196326428830483</v>
+        <v>0.2737254265501647</v>
       </c>
       <c r="D25">
-        <v>0.08457839977167225</v>
+        <v>0.03705671340148342</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.440729736901794</v>
+        <v>0.6713296575144838</v>
       </c>
       <c r="G25">
-        <v>0.3227726436757408</v>
+        <v>0.5091739849771102</v>
       </c>
       <c r="H25">
-        <v>0.2726838183035909</v>
+        <v>0.6525665849687385</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.021881387806616</v>
+        <v>0.3153804308811061</v>
       </c>
       <c r="L25">
-        <v>0.4741664388596689</v>
+        <v>0.3191053919608748</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6714962518757464</v>
+        <v>1.440432804138551</v>
       </c>
       <c r="O25">
-        <v>1.204317612912007</v>
+        <v>2.288947890832944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_237/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_237/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5410300942337471</v>
+        <v>1.171085891496404</v>
       </c>
       <c r="C2">
-        <v>0.2768127168325076</v>
+        <v>0.125725843428107</v>
       </c>
       <c r="D2">
-        <v>0.03316564316829584</v>
+        <v>0.07302045954237002</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6696811536956773</v>
+        <v>0.4083339705035911</v>
       </c>
       <c r="G2">
-        <v>0.5099755435820512</v>
+        <v>0.3038114945626162</v>
       </c>
       <c r="H2">
-        <v>0.6575008361093424</v>
+        <v>0.270991616318895</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2658695971831264</v>
+        <v>0.8622387185941989</v>
       </c>
       <c r="L2">
-        <v>0.3018766062606488</v>
+        <v>0.4029835596811324</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.46088788364032</v>
+        <v>0.7187775815971218</v>
       </c>
       <c r="O2">
-        <v>2.300653869830867</v>
+        <v>1.160126689442706</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4973042949314106</v>
+        <v>1.018284424908643</v>
       </c>
       <c r="C3">
-        <v>0.2790564963711972</v>
+        <v>0.130102233489934</v>
       </c>
       <c r="D3">
-        <v>0.03049942358976665</v>
+        <v>0.06515740108525137</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6693404871908868</v>
+        <v>0.3879625792762482</v>
       </c>
       <c r="G3">
-        <v>0.5111656612577136</v>
+        <v>0.2923854014290228</v>
       </c>
       <c r="H3">
-        <v>0.6613721809385282</v>
+        <v>0.2707401169740322</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2322006871786613</v>
+        <v>0.7540226679568889</v>
       </c>
       <c r="L3">
-        <v>0.2905448421806653</v>
+        <v>0.3556170811889103</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.475722630817817</v>
+        <v>0.7527823064771724</v>
       </c>
       <c r="O3">
-        <v>2.31104569319848</v>
+        <v>1.135054425307018</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4705858802843466</v>
+        <v>0.9246940291733949</v>
       </c>
       <c r="C4">
-        <v>0.2805091056868099</v>
+        <v>0.1329090842840355</v>
       </c>
       <c r="D4">
-        <v>0.0288480876533086</v>
+        <v>0.06031217180099446</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6695146128997891</v>
+        <v>0.3761754487412574</v>
       </c>
       <c r="G4">
-        <v>0.5122153051873326</v>
+        <v>0.2860173913735409</v>
       </c>
       <c r="H4">
-        <v>0.6640097691325337</v>
+        <v>0.271003408127072</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2114735398789378</v>
+        <v>0.6875171891255576</v>
       </c>
       <c r="L4">
-        <v>0.2837571077002963</v>
+        <v>0.3269082904982668</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.485311072507731</v>
+        <v>0.7745925104963618</v>
       </c>
       <c r="O4">
-        <v>2.318639534505877</v>
+        <v>1.121898975482395</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4597311740519956</v>
+        <v>0.8866011806628364</v>
       </c>
       <c r="C5">
-        <v>0.2811199197046541</v>
+        <v>0.1340826941868878</v>
       </c>
       <c r="D5">
-        <v>0.02817160032829236</v>
+        <v>0.05833304904000869</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6696820274203219</v>
+        <v>0.3715449653042597</v>
       </c>
       <c r="G5">
-        <v>0.5127232299080049</v>
+        <v>0.283577522550587</v>
       </c>
       <c r="H5">
-        <v>0.665150199880685</v>
+        <v>0.2712123632844055</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2030139292224078</v>
+        <v>0.6603941987510353</v>
       </c>
       <c r="L5">
-        <v>0.2810338972334137</v>
+        <v>0.3152955028940738</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.489339121317988</v>
+        <v>0.7837092086317714</v>
       </c>
       <c r="O5">
-        <v>2.322039290798941</v>
+        <v>1.117077613994041</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4579307887912876</v>
+        <v>0.8802783334917876</v>
       </c>
       <c r="C6">
-        <v>0.281222484972516</v>
+        <v>0.1342793618854579</v>
       </c>
       <c r="D6">
-        <v>0.02805905640322948</v>
+        <v>0.05800412751916895</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6697156544025731</v>
+        <v>0.3707862780383664</v>
       </c>
       <c r="G6">
-        <v>0.5128124133179952</v>
+        <v>0.2831815353677456</v>
       </c>
       <c r="H6">
-        <v>0.6653435312176299</v>
+        <v>0.2712531043061901</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2016084397409799</v>
+        <v>0.655888973348695</v>
       </c>
       <c r="L6">
-        <v>0.280584300820351</v>
+        <v>0.3133721958778324</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.490015265198554</v>
+        <v>0.7852367019091613</v>
       </c>
       <c r="O6">
-        <v>2.322622255171879</v>
+        <v>1.11630895434179</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4704393542715763</v>
+        <v>0.9241801247721355</v>
       </c>
       <c r="C7">
-        <v>0.2805172669273039</v>
+        <v>0.1329247917596117</v>
       </c>
       <c r="D7">
-        <v>0.02883897865736174</v>
+        <v>0.06028549989297005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.669516480062434</v>
+        <v>0.376112311370477</v>
       </c>
       <c r="G7">
-        <v>0.5122218305735302</v>
+        <v>0.2859838682189135</v>
       </c>
       <c r="H7">
-        <v>0.6640248837066096</v>
+        <v>0.2710058188980113</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.211359503078711</v>
+        <v>0.6871514939676899</v>
       </c>
       <c r="L7">
-        <v>0.2837202079218031</v>
+        <v>0.326751337197237</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.485364907523101</v>
+        <v>0.7747145416322105</v>
       </c>
       <c r="O7">
-        <v>2.318684148875164</v>
+        <v>1.121831798365818</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5259270023358908</v>
+        <v>1.118344737789243</v>
       </c>
       <c r="C8">
-        <v>0.2775708375148236</v>
+        <v>0.1272097826950755</v>
       </c>
       <c r="D8">
-        <v>0.03224931064976744</v>
+        <v>0.07031267160858334</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6694841811634191</v>
+        <v>0.4011550848665024</v>
       </c>
       <c r="G8">
-        <v>0.5103197026326782</v>
+        <v>0.2997326099364912</v>
       </c>
       <c r="H8">
-        <v>0.6587816371743997</v>
+        <v>0.2708161254939228</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2542721317164478</v>
+        <v>0.8249344364004116</v>
       </c>
       <c r="L8">
-        <v>0.2979341804341971</v>
+        <v>0.3865690254367991</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.465903325209055</v>
+        <v>0.730305902077669</v>
       </c>
       <c r="O8">
-        <v>2.303985241918056</v>
+        <v>1.151002643497591</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6357385174968897</v>
+        <v>1.501513910208189</v>
       </c>
       <c r="C9">
-        <v>0.2723861727396057</v>
+        <v>0.1169669343453643</v>
       </c>
       <c r="D9">
-        <v>0.03882260148906624</v>
+        <v>0.08985429180625459</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6724598087353399</v>
+        <v>0.4563847549534472</v>
       </c>
       <c r="G9">
-        <v>0.5091208697625902</v>
+        <v>0.3321981506715517</v>
       </c>
       <c r="H9">
-        <v>0.6505641797605648</v>
+        <v>0.2739183334435111</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3379736791028449</v>
+        <v>1.094960705014756</v>
       </c>
       <c r="L9">
-        <v>0.3271543049267933</v>
+        <v>0.5072202587584229</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.43154517965387</v>
+        <v>0.6508557784123639</v>
       </c>
       <c r="O9">
-        <v>2.284782979635423</v>
+        <v>1.227082191497033</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7169996276427639</v>
+        <v>1.785384771598274</v>
       </c>
       <c r="C10">
-        <v>0.2689369569658799</v>
+        <v>0.1100495199765188</v>
       </c>
       <c r="D10">
-        <v>0.0435811324608224</v>
+        <v>0.1041612149164521</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6764968938239235</v>
+        <v>0.5012800664718853</v>
       </c>
       <c r="G10">
-        <v>0.5097852493180852</v>
+        <v>0.3599410993922447</v>
       </c>
       <c r="H10">
-        <v>0.6457816673298709</v>
+        <v>0.2785493408894268</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3991749111001468</v>
+        <v>1.293728664081357</v>
       </c>
       <c r="L10">
-        <v>0.3494425665349468</v>
+        <v>0.5984647924807831</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.408619749842089</v>
+        <v>0.5974940423040156</v>
       </c>
       <c r="O10">
-        <v>2.276537945114114</v>
+        <v>1.296109526862637</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7540885934607218</v>
+        <v>1.915246978568462</v>
       </c>
       <c r="C11">
-        <v>0.2674456142169763</v>
+        <v>0.1070392847656301</v>
       </c>
       <c r="D11">
-        <v>0.04573030143276924</v>
+        <v>0.1106645052768016</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6787350842365925</v>
+        <v>0.5227791930489687</v>
       </c>
       <c r="G11">
-        <v>0.51042350288688</v>
+        <v>0.3735323678695579</v>
       </c>
       <c r="H11">
-        <v>0.643877688979515</v>
+        <v>0.281221707379089</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4269491289409473</v>
+        <v>1.384350753384183</v>
       </c>
       <c r="L11">
-        <v>0.3597601811337228</v>
+        <v>0.6406714363431121</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.398693030687461</v>
+        <v>0.5743896230382095</v>
       </c>
       <c r="O11">
-        <v>2.274059643386693</v>
+        <v>1.33074452618439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7681502534720153</v>
+        <v>1.964545212312913</v>
       </c>
       <c r="C12">
-        <v>0.2668920327321649</v>
+        <v>0.1059194413385525</v>
       </c>
       <c r="D12">
-        <v>0.04654187640673513</v>
+        <v>0.1131268766877866</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6796403405045766</v>
+        <v>0.5310871665978425</v>
       </c>
       <c r="G12">
-        <v>0.5107135360183719</v>
+        <v>0.378829716911909</v>
       </c>
       <c r="H12">
-        <v>0.6431956952012996</v>
+        <v>0.2823198768445678</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4374564728812231</v>
+        <v>1.418705807226587</v>
       </c>
       <c r="L12">
-        <v>0.3636928100565626</v>
+        <v>0.6567660707948733</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.395006239970831</v>
+        <v>0.5658163448486508</v>
       </c>
       <c r="O12">
-        <v>2.273304066671329</v>
+        <v>1.344358659662646</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7651210856266175</v>
+        <v>1.953922227053681</v>
       </c>
       <c r="C13">
-        <v>0.2670107604676657</v>
+        <v>0.1061597200117212</v>
       </c>
       <c r="D13">
-        <v>0.04636719072570372</v>
+        <v>0.1125965663436119</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6794428120485847</v>
+        <v>0.5292902822557082</v>
       </c>
       <c r="G13">
-        <v>0.5106489219265029</v>
+        <v>0.3776819559606395</v>
       </c>
       <c r="H13">
-        <v>0.6433408410478734</v>
+        <v>0.2820794520075083</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4351939890490542</v>
+        <v>1.411304964603744</v>
       </c>
       <c r="L13">
-        <v>0.3628447124322918</v>
+        <v>0.6532946379273596</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.395797042809605</v>
+        <v>0.5676548062168685</v>
       </c>
       <c r="O13">
-        <v>2.273458660103984</v>
+        <v>1.341403880361128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7552451210867162</v>
+        <v>1.919300219416812</v>
       </c>
       <c r="C14">
-        <v>0.2673998472258683</v>
+        <v>0.1069467498291052</v>
       </c>
       <c r="D14">
-        <v>0.04579711588198165</v>
+        <v>0.1108670891495649</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6788084041359568</v>
+        <v>0.5234592824544322</v>
       </c>
       <c r="G14">
-        <v>0.5104463951600877</v>
+        <v>0.3739650995701709</v>
       </c>
       <c r="H14">
-        <v>0.6438207996116034</v>
+        <v>0.2813102979403652</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4278137812023033</v>
+        <v>1.387176337517928</v>
       </c>
       <c r="L14">
-        <v>0.3600832089910995</v>
+        <v>0.6419932413585769</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.398388268168919</v>
+        <v>0.5736807245496625</v>
       </c>
       <c r="O14">
-        <v>2.273993816395006</v>
+        <v>1.331854376748112</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7491979814293472</v>
+        <v>1.89810969965535</v>
       </c>
       <c r="C15">
-        <v>0.2676396266030965</v>
+        <v>0.1074314549323852</v>
       </c>
       <c r="D15">
-        <v>0.04544763199290003</v>
+        <v>0.1098077108764528</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6784273236386227</v>
+        <v>0.5199097068012009</v>
       </c>
       <c r="G15">
-        <v>0.5103286376033651</v>
+        <v>0.3717083728420221</v>
       </c>
       <c r="H15">
-        <v>0.6441198655849547</v>
+        <v>0.2808505441554559</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4232918517236328</v>
+        <v>1.372402154044977</v>
       </c>
       <c r="L15">
-        <v>0.3583950354711902</v>
+        <v>0.6350857314197214</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.399984877553569</v>
+        <v>0.5773949095420292</v>
       </c>
       <c r="O15">
-        <v>2.274345432317489</v>
+        <v>1.326070994582636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7145781811015581</v>
+        <v>1.776914093402638</v>
       </c>
       <c r="C16">
-        <v>0.2690359820902311</v>
+        <v>0.1102490299231977</v>
       </c>
       <c r="D16">
-        <v>0.04344036383249517</v>
+        <v>0.1037361456235004</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6763587007867287</v>
+        <v>0.4998977091125028</v>
       </c>
       <c r="G16">
-        <v>0.5097503013812172</v>
+        <v>0.3590733413292924</v>
       </c>
       <c r="H16">
-        <v>0.6459115575200798</v>
+        <v>0.2783864870914385</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3973584120948601</v>
+        <v>1.287811146171407</v>
       </c>
       <c r="L16">
-        <v>0.3487718704368206</v>
+        <v>0.595721511559276</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.409278591853866</v>
+        <v>0.5990281558815838</v>
       </c>
       <c r="O16">
-        <v>2.276725506235323</v>
+        <v>1.293913948640778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6933709610334802</v>
+        <v>1.702763085912466</v>
       </c>
       <c r="C17">
-        <v>0.269912494166733</v>
+        <v>0.1120127921683238</v>
       </c>
       <c r="D17">
-        <v>0.04220497000907386</v>
+        <v>0.1000104581142054</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6751925090319233</v>
+        <v>0.4879049012779717</v>
       </c>
       <c r="G17">
-        <v>0.5094815895110258</v>
+        <v>0.3515784545064946</v>
       </c>
       <c r="H17">
-        <v>0.6470802287291662</v>
+        <v>0.2770231192228039</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.381431632526386</v>
+        <v>1.235975444028981</v>
       </c>
       <c r="L17">
-        <v>0.3429140319069717</v>
+        <v>0.5717597490232151</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.415108624245134</v>
+        <v>0.6126044153923296</v>
       </c>
       <c r="O17">
-        <v>2.27851145019639</v>
+        <v>1.275038214743432</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.681184742605069</v>
+        <v>1.660180785026427</v>
       </c>
       <c r="C18">
-        <v>0.270423957476047</v>
+        <v>0.1130400852949629</v>
       </c>
       <c r="D18">
-        <v>0.04149294651789859</v>
+        <v>0.09786704292716308</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6745595600624696</v>
+        <v>0.4811074769826789</v>
       </c>
       <c r="G18">
-        <v>0.5093586605434126</v>
+        <v>0.3473582777127149</v>
       </c>
       <c r="H18">
-        <v>0.6477779860893094</v>
+        <v>0.2762918844798321</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3722647429362098</v>
+        <v>1.206179285413413</v>
       </c>
       <c r="L18">
-        <v>0.3395615726655592</v>
+        <v>0.5580426524899593</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.418509169694362</v>
+        <v>0.6205227753618932</v>
       </c>
       <c r="O18">
-        <v>2.279658446940601</v>
+        <v>1.264483676686922</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6770607173334326</v>
+        <v>1.645774208917118</v>
       </c>
       <c r="C19">
-        <v>0.2705983873991222</v>
+        <v>0.1133900986978622</v>
       </c>
       <c r="D19">
-        <v>0.04125161841108138</v>
+        <v>0.09714122093745203</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6743517508219128</v>
+        <v>0.4788228967627575</v>
       </c>
       <c r="G19">
-        <v>0.5093224702354036</v>
+        <v>0.3459446483220034</v>
       </c>
       <c r="H19">
-        <v>0.6480186278752171</v>
+        <v>0.2760532500141579</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3691599398486574</v>
+        <v>1.196093695134465</v>
       </c>
       <c r="L19">
-        <v>0.3384293787003116</v>
+        <v>0.5534091211271885</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.4196686528781</v>
+        <v>0.6232224047274659</v>
       </c>
       <c r="O19">
-        <v>2.28006737282621</v>
+        <v>1.260961019760089</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6956273096090797</v>
+        <v>1.710649488356211</v>
       </c>
       <c r="C20">
-        <v>0.2698184308411964</v>
+        <v>0.1118237063807239</v>
       </c>
       <c r="D20">
-        <v>0.04233663092641393</v>
+        <v>0.1004071124046675</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6753127390056051</v>
+        <v>0.4891710679534782</v>
       </c>
       <c r="G20">
-        <v>0.5095069209218934</v>
+        <v>0.3523668348407796</v>
       </c>
       <c r="H20">
-        <v>0.6469531758352929</v>
+        <v>0.2771627389048632</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3831277141158012</v>
+        <v>1.241491475790838</v>
       </c>
       <c r="L20">
-        <v>0.3435358693427162</v>
+        <v>0.5743037043756658</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.414483115378255</v>
+        <v>0.6111477968828449</v>
       </c>
       <c r="O20">
-        <v>2.27830893825697</v>
+        <v>1.277016046941782</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7581454796759317</v>
+        <v>1.929466079141662</v>
       </c>
       <c r="C21">
-        <v>0.2672852603461138</v>
+        <v>0.1067150319040184</v>
       </c>
       <c r="D21">
-        <v>0.04596462255916833</v>
+        <v>0.1113750826192899</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.678993179597029</v>
+        <v>0.5251673645520043</v>
       </c>
       <c r="G21">
-        <v>0.5105045700779414</v>
+        <v>0.37505265113397</v>
       </c>
       <c r="H21">
-        <v>0.643678766101047</v>
+        <v>0.2815338374447975</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4299818072478558</v>
+        <v>1.394262378406921</v>
       </c>
       <c r="L21">
-        <v>0.3608936363240502</v>
+        <v>0.6453096044726152</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.397625201577597</v>
+        <v>0.5719059305349461</v>
       </c>
       <c r="O21">
-        <v>2.273831664652135</v>
+        <v>1.334645487709338</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7991026997244148</v>
+        <v>2.073196849607825</v>
       </c>
       <c r="C22">
-        <v>0.2656947137683217</v>
+        <v>0.1034934027419325</v>
       </c>
       <c r="D22">
-        <v>0.04832248338753686</v>
+        <v>0.1185418535417995</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6817348630246087</v>
+        <v>0.5496708925593552</v>
       </c>
       <c r="G22">
-        <v>0.511438364981359</v>
+        <v>0.3907627411067409</v>
       </c>
       <c r="H22">
-        <v>0.6417660549005717</v>
+        <v>0.2848955280942391</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4605442355366165</v>
+        <v>1.494335898131766</v>
       </c>
       <c r="L22">
-        <v>0.3723869444373804</v>
+        <v>0.6923740773654714</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.387028679997968</v>
+        <v>0.5472880280539734</v>
       </c>
       <c r="O22">
-        <v>2.271971569837376</v>
+        <v>1.375233015571013</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.777234358623474</v>
+        <v>1.996412905977479</v>
       </c>
       <c r="C23">
-        <v>0.2665376745984345</v>
+        <v>0.1052019752449143</v>
       </c>
       <c r="D23">
-        <v>0.04706527296191609</v>
+        <v>0.1147167933124535</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6802408239683331</v>
+        <v>0.5364992717704453</v>
       </c>
       <c r="G23">
-        <v>0.5109141922153242</v>
+        <v>0.3822933015789687</v>
       </c>
       <c r="H23">
-        <v>0.6427661248352337</v>
+        <v>0.283053446376428</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4442381228382146</v>
+        <v>1.440900533432398</v>
       </c>
       <c r="L23">
-        <v>0.3662391512198724</v>
+        <v>0.6671907256446588</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.392645701729363</v>
+        <v>0.5603302882129668</v>
       </c>
       <c r="O23">
-        <v>2.2728668155425</v>
+        <v>1.353291572981561</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.694607195373294</v>
+        <v>1.707083897301004</v>
       </c>
       <c r="C24">
-        <v>0.2698609333685118</v>
+        <v>0.1119091507251566</v>
       </c>
       <c r="D24">
-        <v>0.04227711256464772</v>
+        <v>0.1002277896046024</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6752582661890827</v>
+        <v>0.4885983315164495</v>
       </c>
       <c r="G24">
-        <v>0.5094953702948715</v>
+        <v>0.3520101325323708</v>
       </c>
       <c r="H24">
-        <v>0.6470105358527292</v>
+        <v>0.2770994534240572</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.38236094789238</v>
+        <v>1.238997663346993</v>
       </c>
       <c r="L24">
-        <v>0.3432546890046524</v>
+        <v>0.5731533997389562</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.414765755985361</v>
+        <v>0.611805982127219</v>
       </c>
       <c r="O24">
-        <v>2.278400119380336</v>
+        <v>1.276120945268303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6059273098708786</v>
+        <v>1.39750994892438</v>
       </c>
       <c r="C25">
-        <v>0.2737254265501647</v>
+        <v>0.1196326428825811</v>
       </c>
       <c r="D25">
-        <v>0.03705671340148342</v>
+        <v>0.08457839977179304</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6713296575144838</v>
+        <v>0.4407297369018082</v>
       </c>
       <c r="G25">
-        <v>0.5091739849771102</v>
+        <v>0.3227726436757763</v>
       </c>
       <c r="H25">
-        <v>0.6525665849687385</v>
+        <v>0.2726838183035838</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3153804308811061</v>
+        <v>1.021881387806616</v>
       </c>
       <c r="L25">
-        <v>0.3191053919608748</v>
+        <v>0.4741664388596405</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.440432804138551</v>
+        <v>0.6714962518757446</v>
       </c>
       <c r="O25">
-        <v>2.288947890832944</v>
+        <v>1.204317612912135</v>
       </c>
     </row>
   </sheetData>
